--- a/우수연/dialogues.xlsx
+++ b/우수연/dialogues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woosy\OneDrive\바탕 화면\파이썬 프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA86C9D-0B5B-4D7E-AEB8-492A28B665D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E6BF14-F4E3-4431-958E-D5C0648F500B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{ADB26254-8BE9-4AC6-AE7C-63433C4E64A3}"/>
+    <workbookView xWindow="3675" yWindow="1065" windowWidth="21600" windowHeight="11190" xr2:uid="{ADB26254-8BE9-4AC6-AE7C-63433C4E64A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,14 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>만약 누군가가 정말 잘 하고 있을 때, 우리는 "You're on fire"라고 하죠. 그럼 한국어로는?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누군가를 응원해야하는 상황에서 우리는 "Never give up"이라하죠. 그럼 한국어로는?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㅈㄲㅁ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>만약 당신이 쇼핑을 하다가 특정 물건을 구매하고 싶지 않을때, 우리는 "It not my style"이라 하죠. 그럼 한국어로는?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄷㅇㅂㄱ ㅇㄱㅇ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>누군가 공공장소에서 시끄럽게 떠들 때 우리는 "Please be quiet"이라 하죠. 그럼 한국어로는?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㅈㅅㄴㅇ?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>만약 친구의 여자친구가 너무 아름다울 때 우리는 "She's hot" 이라하죠. 그럼 한국어로는?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㅅㄱ ㄷ ㄴㄹ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>만약 길거리에서 누군가와 시비가 붙었을 때 우리는 "Hey, you want a piece of me?"라고 하죠. 그럼 한국어로는?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄴ ㅁ ㄷ?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>만약 당신에게 작업을 거는 사람이 마음에 들지 않는다면 "You're not my style"이라 하죠. 그럼 한국어로는?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㅈㅈㅎ ㅇㄱ ㅈㅇㅇㅇ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>만약 누군가의 외모가 별로일 때 우리는 "He's not attractive"라 하죠. 그럼 한국어로는?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄴ ㄴㅊ ㅈㄴㄱㄷ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,27 +113,79 @@
     <t>Description</t>
   </si>
   <si>
-    <t>만약 어떤 사람이 내 편이 아닌 상황에 우리는 "What's wrong with you?"라고 하죠. 한국어로는?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄴ Xㅇ?(X는 알파벳)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>너 T야?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>만약 당신의 남자친구가 옷을 잘 못 입을 때 우리는 "I don't like your clothes" 라고 하죠 그럼 한국어로는?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㅇ ㅇㅇ ㄷㄱ ㅈㅇㅎㄴㅂ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이 옷을 되게 좋아하나봐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ xㅇ?(x는 알파벳)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누군가를 응원해야하는 상황에서 우리는 
+"Never give up"
+이라하죠. 그럼 한국어로는?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 당신이 쇼핑을 하다가 특정 물건을 구매하고 싶지 않을때, 우리는 
+"It not my style"
+이라 하죠. 그럼 한국어로는?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누군가 공공장소에서 시끄럽게 떠들 때 우리는 
+"Please be quiet"
+이라 하죠. 그럼 한국어로는?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 친구의 여자친구가 너무 아름다울 때 우리는 
+"She's hot"
+이라하죠. 그럼 한국어로는?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 길거리에서 누군가와 시비가 붙었을 때 우리는 
+"Hey, you want a piece of me?"
+라고 하죠. 그럼 한국어로는?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 당신에게 작업을 거는 사람이 마음에 들지 않는다면 
+"You're not my style"
+이라 하죠. 그럼 한국어로는?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 누군가의 외모가 별로일 때 우리는 
+"He's not attractive"
+라 하죠. 그럼 한국어로는?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 어떤 사람이 내 편이 아닌 상황에 우리는
+"What's wrong with you?"
+라고 하죠. 한국어로는?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 당신의 남자친구가 옷을 잘 못 입을 때 우리는 
+"I don't like your clothes" 
+라고 하죠 그럼 한국어로는?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 누군가가 정말 잘 하고 있을 때, 우리는 
+"You're on fire"
+라고 하죠. 그럼 한국어로는?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,7 +193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,9 +211,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00A67D"/>
-      <name val="Ubuntu Mono"/>
-      <family val="2"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -218,12 +239,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,20 +565,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B02B12-F46C-46F0-8D39-69559F66F242}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="39.75" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -563,114 +587,114 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:3" ht="49.5">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="49.5">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="66">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" ht="49.5">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="66">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="66">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="8" spans="1:3" ht="66">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="49.5">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="49.5">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="11" spans="1:3" ht="66">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C11" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
